--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.83231666666667</v>
+        <v>10.33497033333333</v>
       </c>
       <c r="H2">
-        <v>56.49695</v>
+        <v>31.004911</v>
       </c>
       <c r="I2">
-        <v>0.9386336222326693</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="J2">
-        <v>0.9386336222326694</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.433013333333332</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N2">
-        <v>19.29904</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O2">
-        <v>0.1097146002786867</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P2">
-        <v>0.1097146002786867</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q2">
-        <v>121.1485442142222</v>
+        <v>32.76184217670622</v>
       </c>
       <c r="R2">
-        <v>1090.336897928</v>
+        <v>294.856579590356</v>
       </c>
       <c r="S2">
-        <v>0.1029818126713931</v>
+        <v>0.05939240563561603</v>
       </c>
       <c r="T2">
-        <v>0.1029818126713931</v>
+        <v>0.05939240563561603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.83231666666667</v>
+        <v>10.33497033333333</v>
       </c>
       <c r="H3">
-        <v>56.49695</v>
+        <v>31.004911</v>
       </c>
       <c r="I3">
-        <v>0.9386336222326693</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="J3">
-        <v>0.9386336222326694</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>98.12812199999999</v>
       </c>
       <c r="O3">
-        <v>0.5578561255548566</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P3">
-        <v>0.5578561255548566</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q3">
-        <v>615.9932891364333</v>
+        <v>338.0504099119046</v>
       </c>
       <c r="R3">
-        <v>5543.9396022279</v>
+        <v>3042.453689207142</v>
       </c>
       <c r="S3">
-        <v>0.5236225158142379</v>
+        <v>0.6128357179209345</v>
       </c>
       <c r="T3">
-        <v>0.5236225158142379</v>
+        <v>0.6128357179209345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.83231666666667</v>
+        <v>10.33497033333333</v>
       </c>
       <c r="H4">
-        <v>56.49695</v>
+        <v>31.004911</v>
       </c>
       <c r="I4">
-        <v>0.9386336222326693</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="J4">
-        <v>0.9386336222326694</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.41905066666667</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N4">
-        <v>58.257152</v>
+        <v>39.629366</v>
       </c>
       <c r="O4">
-        <v>0.3311905745080944</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P4">
-        <v>0.3311905745080943</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q4">
-        <v>365.7057115207111</v>
+        <v>136.5227739796029</v>
       </c>
       <c r="R4">
-        <v>3291.3514036864</v>
+        <v>1228.704965816426</v>
       </c>
       <c r="S4">
-        <v>0.3108666085998514</v>
+        <v>0.2474957277115878</v>
       </c>
       <c r="T4">
-        <v>0.3108666085998513</v>
+        <v>0.2474957277115878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.83231666666667</v>
+        <v>0.589599</v>
       </c>
       <c r="H5">
-        <v>56.49695</v>
+        <v>1.768797</v>
       </c>
       <c r="I5">
-        <v>0.9386336222326693</v>
+        <v>0.05246926169056023</v>
       </c>
       <c r="J5">
-        <v>0.9386336222326694</v>
+        <v>0.05246926169056022</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07263</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N5">
-        <v>0.21789</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O5">
-        <v>0.001238699658362439</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P5">
-        <v>0.001238699658362439</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q5">
-        <v>1.3677911595</v>
+        <v>1.869028043868</v>
       </c>
       <c r="R5">
-        <v>12.3101204355</v>
+        <v>16.821252394812</v>
       </c>
       <c r="S5">
-        <v>0.001162685147187106</v>
+        <v>0.003388273196819069</v>
       </c>
       <c r="T5">
-        <v>0.001162685147187106</v>
+        <v>0.003388273196819069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5895989999999999</v>
+        <v>0.589599</v>
       </c>
       <c r="H6">
         <v>1.768797</v>
       </c>
       <c r="I6">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056023</v>
       </c>
       <c r="J6">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.433013333333332</v>
+        <v>32.709374</v>
       </c>
       <c r="N6">
-        <v>19.29904</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O6">
-        <v>0.1097146002786867</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P6">
-        <v>0.1097146002786867</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q6">
-        <v>3.792898228319999</v>
+        <v>19.285414201026</v>
       </c>
       <c r="R6">
-        <v>34.13608405487999</v>
+        <v>173.568727809234</v>
       </c>
       <c r="S6">
-        <v>0.003224137255333643</v>
+        <v>0.03496162202663299</v>
       </c>
       <c r="T6">
-        <v>0.003224137255333644</v>
+        <v>0.03496162202663298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5895989999999999</v>
+        <v>0.589599</v>
       </c>
       <c r="H7">
         <v>1.768797</v>
       </c>
       <c r="I7">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056023</v>
       </c>
       <c r="J7">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056022</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.709374</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N7">
-        <v>98.12812199999999</v>
+        <v>39.629366</v>
       </c>
       <c r="O7">
-        <v>0.5578561255548566</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P7">
-        <v>0.5578561255548566</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q7">
-        <v>19.28541420102599</v>
+        <v>7.788478188078</v>
       </c>
       <c r="R7">
-        <v>173.568727809234</v>
+        <v>70.09630369270199</v>
       </c>
       <c r="S7">
-        <v>0.0163934855793928</v>
+        <v>0.01411936646710818</v>
       </c>
       <c r="T7">
-        <v>0.01639348557939281</v>
+        <v>0.01411936646710818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5895989999999999</v>
+        <v>0.216152</v>
       </c>
       <c r="H8">
-        <v>1.768797</v>
+        <v>0.6484559999999999</v>
       </c>
       <c r="I8">
-        <v>0.02938658343688073</v>
+        <v>0.019235676880283</v>
       </c>
       <c r="J8">
-        <v>0.02938658343688073</v>
+        <v>0.01923567688028299</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.41905066666667</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N8">
-        <v>58.257152</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O8">
-        <v>0.3311905745080944</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P8">
-        <v>0.3311905745080943</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q8">
-        <v>11.449452854016</v>
+        <v>0.6852015517973333</v>
       </c>
       <c r="R8">
-        <v>103.045075686144</v>
+        <v>6.166813966176</v>
       </c>
       <c r="S8">
-        <v>0.009732559451290578</v>
+        <v>0.001242169725591182</v>
       </c>
       <c r="T8">
-        <v>0.009732559451290578</v>
+        <v>0.001242169725591182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5895989999999999</v>
+        <v>0.216152</v>
       </c>
       <c r="H9">
-        <v>1.768797</v>
+        <v>0.6484559999999999</v>
       </c>
       <c r="I9">
-        <v>0.02938658343688073</v>
+        <v>0.019235676880283</v>
       </c>
       <c r="J9">
-        <v>0.02938658343688073</v>
+        <v>0.01923567688028299</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07263</v>
+        <v>32.709374</v>
       </c>
       <c r="N9">
-        <v>0.21789</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O9">
-        <v>0.001238699658362439</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P9">
-        <v>0.001238699658362439</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q9">
-        <v>0.04282257536999999</v>
+        <v>7.070196608847999</v>
       </c>
       <c r="R9">
-        <v>0.3854031783299999</v>
+        <v>63.63176947963198</v>
       </c>
       <c r="S9">
-        <v>3.640115086370346E-05</v>
+        <v>0.01281722751276846</v>
       </c>
       <c r="T9">
-        <v>3.640115086370346E-05</v>
+        <v>0.01281722751276846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4419256666666666</v>
+        <v>0.216152</v>
       </c>
       <c r="H10">
-        <v>1.325777</v>
+        <v>0.6484559999999999</v>
       </c>
       <c r="I10">
-        <v>0.02202630173456729</v>
+        <v>0.019235676880283</v>
       </c>
       <c r="J10">
-        <v>0.02202630173456729</v>
+        <v>0.01923567688028299</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.433013333333332</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N10">
-        <v>19.29904</v>
+        <v>39.629366</v>
       </c>
       <c r="O10">
-        <v>0.1097146002786867</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P10">
-        <v>0.1097146002786867</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q10">
-        <v>2.842913706008888</v>
+        <v>2.855322239877333</v>
       </c>
       <c r="R10">
-        <v>25.58622335407999</v>
+        <v>25.69790015889599</v>
       </c>
       <c r="S10">
-        <v>0.002416606890425793</v>
+        <v>0.005176279641923352</v>
       </c>
       <c r="T10">
-        <v>0.002416606890425793</v>
+        <v>0.005176279641923351</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.4419256666666666</v>
+        <v>0.096315</v>
       </c>
       <c r="H11">
-        <v>1.325777</v>
+        <v>0.288945</v>
       </c>
       <c r="I11">
-        <v>0.02202630173456729</v>
+        <v>0.008571210161018436</v>
       </c>
       <c r="J11">
-        <v>0.02202630173456729</v>
+        <v>0.008571210161018434</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.709374</v>
+        <v>3.169998666666667</v>
       </c>
       <c r="N11">
-        <v>98.12812199999999</v>
+        <v>9.509996000000001</v>
       </c>
       <c r="O11">
-        <v>0.5578561255548566</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="P11">
-        <v>0.5578561255548566</v>
+        <v>0.06457634599094531</v>
       </c>
       <c r="Q11">
-        <v>14.45511191119933</v>
+        <v>0.30531842158</v>
       </c>
       <c r="R11">
-        <v>130.096007200794</v>
+        <v>2.74786579422</v>
       </c>
       <c r="S11">
-        <v>0.01228750734594793</v>
+        <v>0.0005534974329190326</v>
       </c>
       <c r="T11">
-        <v>0.01228750734594793</v>
+        <v>0.0005534974329190325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4419256666666666</v>
+        <v>0.096315</v>
       </c>
       <c r="H12">
-        <v>1.325777</v>
+        <v>0.288945</v>
       </c>
       <c r="I12">
-        <v>0.02202630173456729</v>
+        <v>0.008571210161018436</v>
       </c>
       <c r="J12">
-        <v>0.02202630173456729</v>
+        <v>0.008571210161018434</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.41905066666667</v>
+        <v>32.709374</v>
       </c>
       <c r="N12">
-        <v>58.257152</v>
+        <v>98.12812199999999</v>
       </c>
       <c r="O12">
-        <v>0.3311905745080944</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="P12">
-        <v>0.3311905745080943</v>
+        <v>0.6663257858061865</v>
       </c>
       <c r="Q12">
-        <v>8.581776911900443</v>
+        <v>3.15040335681</v>
       </c>
       <c r="R12">
-        <v>77.23599220710398</v>
+        <v>28.35363021129</v>
       </c>
       <c r="S12">
-        <v>0.007294903525759977</v>
+        <v>0.00571121834585058</v>
       </c>
       <c r="T12">
-        <v>0.007294903525759977</v>
+        <v>0.005711218345850579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,303 +1210,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4419256666666666</v>
+        <v>0.096315</v>
       </c>
       <c r="H13">
-        <v>1.325777</v>
+        <v>0.288945</v>
       </c>
       <c r="I13">
-        <v>0.02202630173456729</v>
+        <v>0.008571210161018436</v>
       </c>
       <c r="J13">
-        <v>0.02202630173456729</v>
+        <v>0.008571210161018434</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07263</v>
+        <v>13.20978866666667</v>
       </c>
       <c r="N13">
-        <v>0.21789</v>
+        <v>39.629366</v>
       </c>
       <c r="O13">
-        <v>0.001238699658362439</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="P13">
-        <v>0.001238699658362439</v>
+        <v>0.2690978682028682</v>
       </c>
       <c r="Q13">
-        <v>0.03209706117</v>
+        <v>1.27230079543</v>
       </c>
       <c r="R13">
-        <v>0.28887355053</v>
+        <v>11.45070715887</v>
       </c>
       <c r="S13">
-        <v>2.72839724335965E-05</v>
+        <v>0.002306494382248823</v>
       </c>
       <c r="T13">
-        <v>2.72839724335965E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1997023333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.5991069999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.00995349259588257</v>
-      </c>
-      <c r="J14">
-        <v>0.009953492595882572</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>6.433013333333332</v>
-      </c>
-      <c r="N14">
-        <v>19.29904</v>
-      </c>
-      <c r="O14">
-        <v>0.1097146002786867</v>
-      </c>
-      <c r="P14">
-        <v>0.1097146002786867</v>
-      </c>
-      <c r="Q14">
-        <v>1.284687773031111</v>
-      </c>
-      <c r="R14">
-        <v>11.56218995728</v>
-      </c>
-      <c r="S14">
-        <v>0.001092043461534123</v>
-      </c>
-      <c r="T14">
-        <v>0.001092043461534124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1997023333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.5991069999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.00995349259588257</v>
-      </c>
-      <c r="J15">
-        <v>0.009953492595882572</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>32.709374</v>
-      </c>
-      <c r="N15">
-        <v>98.12812199999999</v>
-      </c>
-      <c r="O15">
-        <v>0.5578561255548566</v>
-      </c>
-      <c r="P15">
-        <v>0.5578561255548566</v>
-      </c>
-      <c r="Q15">
-        <v>6.532138309672665</v>
-      </c>
-      <c r="R15">
-        <v>58.78924478705399</v>
-      </c>
-      <c r="S15">
-        <v>0.005552616815278003</v>
-      </c>
-      <c r="T15">
-        <v>0.005552616815278004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1997023333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.5991069999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.00995349259588257</v>
-      </c>
-      <c r="J16">
-        <v>0.009953492595882572</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.41905066666667</v>
-      </c>
-      <c r="N16">
-        <v>58.257152</v>
-      </c>
-      <c r="O16">
-        <v>0.3311905745080944</v>
-      </c>
-      <c r="P16">
-        <v>0.3311905745080943</v>
-      </c>
-      <c r="Q16">
-        <v>3.878029729251555</v>
-      </c>
-      <c r="R16">
-        <v>34.902267563264</v>
-      </c>
-      <c r="S16">
-        <v>0.003296502931192412</v>
-      </c>
-      <c r="T16">
-        <v>0.003296502931192412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1997023333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.5991069999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.00995349259588257</v>
-      </c>
-      <c r="J17">
-        <v>0.009953492595882572</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.07263</v>
-      </c>
-      <c r="N17">
-        <v>0.21789</v>
-      </c>
-      <c r="O17">
-        <v>0.001238699658362439</v>
-      </c>
-      <c r="P17">
-        <v>0.001238699658362439</v>
-      </c>
-      <c r="Q17">
-        <v>0.01450438047</v>
-      </c>
-      <c r="R17">
-        <v>0.13053942423</v>
-      </c>
-      <c r="S17">
-        <v>1.23293878780328E-05</v>
-      </c>
-      <c r="T17">
-        <v>1.232938787803281E-05</v>
+        <v>0.002306494382248823</v>
       </c>
     </row>
   </sheetData>
